--- a/design/数值表.xlsx
+++ b/design/数值表.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sli/BattleShipR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sli/wartership/design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA60844-026B-CD46-9259-137FAA1A29E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84273E46-2259-B641-BB48-9990DD37647A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9720" yWindow="5960" windowWidth="24960" windowHeight="14420" activeTab="2" xr2:uid="{6650A4EE-7E79-C54C-AF75-1B6B878B454B}"/>
+    <workbookView xWindow="4440" yWindow="2660" windowWidth="24960" windowHeight="14420" xr2:uid="{6650A4EE-7E79-C54C-AF75-1B6B878B454B}"/>
   </bookViews>
   <sheets>
     <sheet name="数值设计" sheetId="2" r:id="rId1"/>
     <sheet name="职业规划" sheetId="1" r:id="rId2"/>
     <sheet name="角色设计" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA05146-E173-A64A-B0DB-7FC2066C86FB}">
   <dimension ref="C3:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -958,7 +958,7 @@
   <dimension ref="A2:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1052,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E157E8-75BC-3141-80EC-90D4E486EA4B}">
   <dimension ref="A3:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
